--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2640326.550413531</v>
+        <v>2658701.239879651</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>183.2937801090606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>195.938972924067</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>33.84234274505316</v>
+        <v>1.528783976971521</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>262.4169073371551</v>
       </c>
       <c r="F5" t="n">
-        <v>378.4326166767232</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>76.71587097450787</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>139.5297567177294</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>327.5256102695348</v>
+        <v>177.0883303594268</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>248.0596779397533</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>43.99240337009272</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>26.97444673954876</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>241.4851972458717</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>183.4653217847137</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>49.32466800426501</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>123.8134132392933</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>207.011521525956</v>
+        <v>88.33114047391261</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2494,7 +2494,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>221.8483731776585</v>
+        <v>128.8834778965559</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>27.71082088042286</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.14700674866103</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>110.6907158639474</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>17.7845819834768</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>16.20445519313633</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>193.7825935731761</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>139.9695281564245</v>
       </c>
       <c r="C37" t="n">
-        <v>40.59850439612215</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>84.13716800702275</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>17.6405541433038</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>103.577671927493</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>60.57755887938696</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,16 +4189,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>170.9733491822237</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1426.30362575193</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C2" t="n">
-        <v>1426.30362575193</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="D2" t="n">
-        <v>1068.03792714518</v>
+        <v>1536.273892958084</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1150.48564035984</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.442957727742</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y2" t="n">
-        <v>1426.30362575193</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.0633493392342</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="C4" t="n">
-        <v>88.12716641132724</v>
+        <v>55.48720805972962</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694738</v>
+        <v>224.4233909876365</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1189.50268270914</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.175505447095</v>
+        <v>820.540165768728</v>
       </c>
       <c r="D5" t="n">
-        <v>835.9098068403443</v>
+        <v>820.540165768728</v>
       </c>
       <c r="E5" t="n">
-        <v>450.1215542421001</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1576.102522773261</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.3468541648867</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="C7" t="n">
-        <v>279.3468541648867</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="D7" t="n">
-        <v>279.3468541648867</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="E7" t="n">
-        <v>131.4337605824936</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>240.5386544529567</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>409.5384547146243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1957.780595683987</v>
+        <v>1370.712364606781</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748109</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y8" t="n">
-        <v>2344.380435748109</v>
+        <v>1757.312204670903</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>477.5636529541582</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>222.8791647482714</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5024,34 +5024,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>965.863190108964</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>965.863190108964</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>965.863190108964</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>745.0706109654338</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.597763704656</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.812348494162</v>
+        <v>1338.018270145723</v>
       </c>
       <c r="U16" t="n">
-        <v>800.6837097077201</v>
+        <v>1338.018270145723</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>1083.333781939836</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>793.916611902875</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3459.155393916675</v>
+        <v>524.5778132641557</v>
       </c>
       <c r="C19" t="n">
-        <v>3459.155393916675</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="D19" t="n">
-        <v>3459.155393916675</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916675</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>4437.14914771935</v>
+        <v>1262.777113342664</v>
       </c>
       <c r="U19" t="n">
-        <v>4148.020508932908</v>
+        <v>1262.777113342664</v>
       </c>
       <c r="V19" t="n">
-        <v>3893.336020727022</v>
+        <v>1262.777113342664</v>
       </c>
       <c r="W19" t="n">
-        <v>3603.918850690061</v>
+        <v>973.3599433057032</v>
       </c>
       <c r="X19" t="n">
-        <v>3459.155393916675</v>
+        <v>745.3703924076858</v>
       </c>
       <c r="Y19" t="n">
-        <v>3459.155393916675</v>
+        <v>524.5778132641557</v>
       </c>
     </row>
     <row r="20">
@@ -5738,43 +5738,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>218.4033802145346</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>367.4730644165944</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>614.2381923230585</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>921.55832560302</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.0436439308535</v>
+        <v>3886.516115720546</v>
       </c>
       <c r="C22" t="n">
-        <v>527.0436439308535</v>
+        <v>3717.579932792639</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>3717.579932792639</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>3717.579932792639</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U22" t="n">
-        <v>755.0331948288708</v>
+        <v>4771.63119879822</v>
       </c>
       <c r="V22" t="n">
-        <v>755.0331948288708</v>
+        <v>4516.946710592333</v>
       </c>
       <c r="W22" t="n">
-        <v>755.0331948288708</v>
+        <v>4516.946710592333</v>
       </c>
       <c r="X22" t="n">
-        <v>527.0436439308535</v>
+        <v>4288.957159694316</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.0436439308535</v>
+        <v>4068.164580550786</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.2811958984813</v>
+        <v>4391.604587469459</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705744</v>
+        <v>4222.668404541552</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>4072.551765129216</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>3924.638671546823</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="V25" t="n">
-        <v>985.6983659354419</v>
+        <v>4619.594138367476</v>
       </c>
       <c r="W25" t="n">
-        <v>696.2811958984813</v>
+        <v>4619.594138367476</v>
       </c>
       <c r="X25" t="n">
-        <v>696.2811958984813</v>
+        <v>4391.604587469459</v>
       </c>
       <c r="Y25" t="n">
-        <v>696.2811958984813</v>
+        <v>4391.604587469459</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>3177.42741301205</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3775.243809179247</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>3775.243809179247</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3775.243809179247</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1470.925542395859</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1247.140127185365</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.72593422785</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="V28" t="n">
-        <v>4317.041446021964</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="W28" t="n">
-        <v>4027.624275985003</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X28" t="n">
-        <v>3799.634725086986</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y28" t="n">
-        <v>3775.243809179247</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6464,10 +6464,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3628.091576844582</v>
+        <v>3756.161980826921</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>3756.161980826921</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F31" t="n">
         <v>3459.155393916675</v>
@@ -6646,25 +6646,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>4749.045769111315</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>4749.045769111315</v>
       </c>
       <c r="U31" t="n">
-        <v>4371.805924143403</v>
+        <v>4749.045769111315</v>
       </c>
       <c r="V31" t="n">
-        <v>4117.121435937516</v>
+        <v>4494.361280905428</v>
       </c>
       <c r="W31" t="n">
-        <v>3827.704265900556</v>
+        <v>4204.944110868468</v>
       </c>
       <c r="X31" t="n">
-        <v>3809.740041674821</v>
+        <v>3976.954559970451</v>
       </c>
       <c r="Y31" t="n">
-        <v>3809.740041674821</v>
+        <v>3756.161980826921</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>2786.879505108312</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>3033.644633014776</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556163</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3941.006808105545</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C34" t="n">
-        <v>3941.006808105545</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D34" t="n">
-        <v>3941.006808105545</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E34" t="n">
-        <v>3924.638671546821</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048911</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>1192.101173611469</v>
       </c>
       <c r="W34" t="n">
-        <v>4571.437402977332</v>
+        <v>902.6840035745087</v>
       </c>
       <c r="X34" t="n">
-        <v>4343.447852079315</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="Y34" t="n">
-        <v>4122.655272935785</v>
+        <v>674.6944526764913</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,28 +6926,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,7 +6959,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>3177.42741301205</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>306.4010034395785</v>
+        <v>3757.486495951125</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>3757.486495951125</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>3757.486495951125</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V37" t="n">
-        <v>755.183133481126</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W37" t="n">
-        <v>755.183133481126</v>
+        <v>4347.651987766838</v>
       </c>
       <c r="X37" t="n">
-        <v>527.1935825831087</v>
+        <v>4119.662436868821</v>
       </c>
       <c r="Y37" t="n">
-        <v>306.4010034395785</v>
+        <v>3898.869857725291</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,10 +7175,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7360,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>816.3222213695503</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
         <v>2051.878056918008</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.3055067228584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C43" t="n">
-        <v>413.3055067228584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1370.022425560835</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1370.022425560835</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1080.893786774393</v>
       </c>
       <c r="V43" t="n">
-        <v>1105.163720733589</v>
+        <v>826.2092985685065</v>
       </c>
       <c r="W43" t="n">
-        <v>815.7465506966282</v>
+        <v>826.2092985685065</v>
       </c>
       <c r="X43" t="n">
-        <v>815.7465506966282</v>
+        <v>598.2197476704891</v>
       </c>
       <c r="Y43" t="n">
-        <v>594.9539715530981</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4098.084493383159</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C46" t="n">
-        <v>4098.084493383159</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>3947.967853970824</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>3800.054760388431</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.859459491671</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>4326.074044281177</v>
+        <v>791.4353891154691</v>
       </c>
       <c r="V46" t="n">
-        <v>4326.074044281177</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W46" t="n">
-        <v>4326.074044281177</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X46" t="n">
-        <v>4098.084493383159</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y46" t="n">
-        <v>4098.084493383159</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>176.7176547498454</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>80.50021372615264</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>38.86002301949912</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>145.2351313103783</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,19 +10434,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>145.2351313103786</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>145.2351313103783</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>202.5230052237939</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23419,16 +23419,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,22 +23464,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2629056590286</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>10.65244607795634</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>14.45548819888955</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>172.2228930541243</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>97.73414781909598</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.3938331833848</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>79.22583087262132</v>
+        <v>197.9062119246647</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,16 +24418,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>30.28927014616946</v>
+        <v>123.2541654272721</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>170.2099891031804</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.4376466034338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24886,13 +24886,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>87.23009411965587</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>207.9250734055603</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>130.2295074534329</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25132,7 +25132,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>58.35504975065186</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>39.86245202551282</v>
       </c>
       <c r="C37" t="n">
-        <v>126.6483167025057</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,19 +25360,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>95.69481217491455</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25600,19 +25600,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>180.2802558402994</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>148.559971396335</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>84.84348914354428</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,16 +26077,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>115.2640032163536</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791022.4183502592</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.4183502588</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.4183502588</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791022.4183502592</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934489</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="I2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="J2" t="n">
         <v>606095.0425934483</v>
       </c>
-      <c r="J2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="K2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="M2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="N2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="O2" t="n">
-        <v>606095.0425934481</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934485</v>
       </c>
     </row>
     <row r="3">
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852684</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230228</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213538.6841184027</v>
+        <v>-211010.3629549604</v>
       </c>
       <c r="C6" t="n">
-        <v>376429.1950961415</v>
+        <v>378957.5162595841</v>
       </c>
       <c r="D6" t="n">
-        <v>376429.1950961417</v>
+        <v>378957.5162595838</v>
       </c>
       <c r="E6" t="n">
-        <v>-42390.68462246345</v>
+        <v>-40355.86538446667</v>
       </c>
       <c r="F6" t="n">
-        <v>482769.3518544326</v>
+        <v>484804.17109243</v>
       </c>
       <c r="G6" t="n">
-        <v>482769.3518544328</v>
+        <v>484804.1710924292</v>
       </c>
       <c r="H6" t="n">
-        <v>482769.3518544328</v>
+        <v>484804.1710924297</v>
       </c>
       <c r="I6" t="n">
-        <v>482769.3518544325</v>
+        <v>484804.1710924295</v>
       </c>
       <c r="J6" t="n">
-        <v>306346.1326618399</v>
+        <v>308380.9518998365</v>
       </c>
       <c r="K6" t="n">
-        <v>482769.351854433</v>
+        <v>484804.1710924297</v>
       </c>
       <c r="L6" t="n">
-        <v>482769.3518544328</v>
+        <v>484804.1710924294</v>
       </c>
       <c r="M6" t="n">
-        <v>347968.3366205955</v>
+        <v>350003.1558585924</v>
       </c>
       <c r="N6" t="n">
-        <v>482769.3518544328</v>
+        <v>484804.1710924297</v>
       </c>
       <c r="O6" t="n">
-        <v>482769.3518544323</v>
+        <v>484804.1710924294</v>
       </c>
       <c r="P6" t="n">
-        <v>482769.3518544331</v>
+        <v>484804.1710924297</v>
       </c>
     </row>
   </sheetData>
@@ -26738,25 +26738,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>198.6365899632012</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>210.9370728176444</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>114.7731302731592</v>
+        <v>147.0866890412408</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>119.5134627351067</v>
       </c>
       <c r="F5" t="n">
-        <v>28.44342906498821</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>68.70517704842338</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>16.64113212406579</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>37.7472815014728</v>
+        <v>188.1845614115807</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>38.2221963022244</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>208.1452399537353</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003116</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>122.4103926810593</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>321.2237252606072</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>394.4928362664027</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>455.6595083608449</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>394.4928362664027</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>484.886707464902</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2658701.239879651</v>
+        <v>2734230.909544457</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -665,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>195.938972924067</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>148.5742820316299</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="D4" t="n">
-        <v>1.528783976971521</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>262.4169073371551</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,10 +952,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>335.6186932117568</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>14.48345164522457</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>139.5297567177294</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>177.0883303594268</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>281.8472002154052</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>126.3298627762801</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>43.99240337009272</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>172.6920470703873</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,10 +1587,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>241.4851972458717</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>49.32466800426501</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>216.2479102458284</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>24.40666873704852</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>123.8134132392933</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>88.33114047391261</v>
+        <v>233.7761939215925</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.9753683655202</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2494,7 +2496,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>128.8834778965559</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.87208032059861</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>27.71082088042286</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2962,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>110.6907158639474</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>248.8055459887977</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3244,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>193.7825935731761</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>274.5005210789653</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.9695281564245</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>128.4454829742676</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84.13716800702275</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>41.59011853091588</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>17.6405541433038</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>179.9319187438049</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4135,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>92.05936778353016</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>170.9733491822237</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1894.539591564834</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="C2" t="n">
-        <v>1894.539591564834</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="D2" t="n">
-        <v>1536.273892958084</v>
+        <v>956.12204299056</v>
       </c>
       <c r="E2" t="n">
-        <v>1150.48564035984</v>
+        <v>956.12204299056</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>949.1765422413565</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>531.2127341395434</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>204.0180141755462</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1894.539591564834</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1894.539591564834</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224.4233909876365</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="C4" t="n">
-        <v>55.48720805972962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>224.4233909876365</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>224.4233909876365</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.4233909876365</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1189.50268270914</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C5" t="n">
-        <v>820.540165768728</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D5" t="n">
-        <v>820.540165768728</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1576.102522773261</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1576.102522773261</v>
+        <v>597.2403795762991</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.5384547146243</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="C7" t="n">
-        <v>409.5384547146243</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="D7" t="n">
-        <v>409.5384547146243</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>409.5384547146243</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>409.5384547146243</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>240.5386544529567</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146243</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146243</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146243</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146243</v>
+        <v>68.57273095695493</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1370.712364606781</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1706.841064946662</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.451536646714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.451536646714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1757.312204670903</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>181.548903816607</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>181.548903816607</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>181.548903816607</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>456.3840257941342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W10" t="n">
-        <v>456.3840257941342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>181.548903816607</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>181.548903816607</v>
       </c>
     </row>
     <row r="11">
@@ -5024,22 +5026,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5121,22 +5123,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635878</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.4221461351941</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C13" t="n">
-        <v>563.4221461351941</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1213.404755937518</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1213.404755937518</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>924.2761171510765</v>
       </c>
       <c r="V13" t="n">
-        <v>965.863190108964</v>
+        <v>924.2761171510765</v>
       </c>
       <c r="W13" t="n">
-        <v>965.863190108964</v>
+        <v>634.8589471141159</v>
       </c>
       <c r="X13" t="n">
-        <v>965.863190108964</v>
+        <v>634.8589471141159</v>
       </c>
       <c r="Y13" t="n">
-        <v>745.0706109654338</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>565.9270610048577</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>565.9270610048577</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1338.018270145723</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1338.018270145723</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1083.333781939836</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>793.916611902875</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X16" t="n">
-        <v>565.9270610048577</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.9270610048577</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,61 +5506,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>524.5778132641557</v>
+        <v>437.6964226305965</v>
       </c>
       <c r="C19" t="n">
-        <v>355.6416303362488</v>
+        <v>268.7602397026897</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362488</v>
+        <v>268.7602397026897</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362488</v>
+        <v>268.7602397026897</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>121.8702922047793</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>121.8702922047793</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>121.8702922047793</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1262.777113342664</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1262.777113342664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1262.777113342664</v>
+        <v>955.1031435655744</v>
       </c>
       <c r="W19" t="n">
-        <v>973.3599433057032</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="X19" t="n">
-        <v>745.3703924076858</v>
+        <v>437.6964226305965</v>
       </c>
       <c r="Y19" t="n">
-        <v>524.5778132641557</v>
+        <v>437.6964226305965</v>
       </c>
     </row>
     <row r="20">
@@ -5729,52 +5731,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>218.4033802145346</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>367.4730644165944</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>614.2381923230585</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>921.55832560302</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.969903867171</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3886.516115720546</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="C22" t="n">
-        <v>3717.579932792639</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="D22" t="n">
-        <v>3717.579932792639</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="E22" t="n">
-        <v>3717.579932792639</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294729</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294729</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>4771.63119879822</v>
+        <v>4624.717003396522</v>
       </c>
       <c r="V22" t="n">
-        <v>4516.946710592333</v>
+        <v>4624.717003396522</v>
       </c>
       <c r="W22" t="n">
-        <v>4516.946710592333</v>
+        <v>4335.299833359561</v>
       </c>
       <c r="X22" t="n">
-        <v>4288.957159694316</v>
+        <v>4107.310282461544</v>
       </c>
       <c r="Y22" t="n">
-        <v>4068.164580550786</v>
+        <v>4107.310282461544</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,22 +5974,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028616</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6005,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N24" t="n">
-        <v>2013.406634128704</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1925.814757496978</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232725</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4391.604587469459</v>
+        <v>782.4872769945467</v>
       </c>
       <c r="C25" t="n">
-        <v>4222.668404541552</v>
+        <v>782.4872769945467</v>
       </c>
       <c r="D25" t="n">
-        <v>4072.551765129216</v>
+        <v>632.370637582211</v>
       </c>
       <c r="E25" t="n">
-        <v>3924.638671546823</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048913</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576119</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>4749.779469576119</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>4749.779469576119</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V25" t="n">
-        <v>4619.594138367476</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W25" t="n">
-        <v>4619.594138367476</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="X25" t="n">
-        <v>4391.604587469459</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="Y25" t="n">
-        <v>4391.604587469459</v>
+        <v>964.1357418247865</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155894</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>2786.879505108311</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>3177.42741301205</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>3484.747546292012</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>416.1184791449342</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>416.1184791449342</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>416.1184791449342</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>416.1184791449342</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>269.2285316470238</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1470.925542395859</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1247.140127185365</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>958.0114883989231</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V28" t="n">
-        <v>958.0114883989231</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W28" t="n">
-        <v>668.5943183619626</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X28" t="n">
-        <v>668.5943183619626</v>
+        <v>416.1184791449342</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184324</v>
+        <v>416.1184791449342</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6454,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>3484.747546292012</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556162</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3756.161980826921</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C31" t="n">
-        <v>3756.161980826921</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D31" t="n">
-        <v>3606.045341414585</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414585</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.045769111315</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4749.045769111315</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>4749.045769111315</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V31" t="n">
-        <v>4494.361280905428</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="W31" t="n">
-        <v>4204.944110868468</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="X31" t="n">
-        <v>3976.954559970451</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="Y31" t="n">
-        <v>3756.161980826921</v>
+        <v>712.8170085027681</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.879505108312</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>3033.644633014776</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556163</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.69918977486</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.72167055707</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>674.6944526764913</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C34" t="n">
-        <v>505.7582697485844</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D34" t="n">
-        <v>355.6416303362487</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E34" t="n">
-        <v>355.6416303362487</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6892,16 +6894,16 @@
         <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>1192.101173611469</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W34" t="n">
-        <v>902.6840035745087</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="X34" t="n">
-        <v>674.6944526764913</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="Y34" t="n">
-        <v>674.6944526764913</v>
+        <v>855.8834252987245</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2786.879505108311</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>3177.42741301205</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>3484.747546292012</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556162</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774859</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3757.486495951125</v>
+        <v>693.7762810288177</v>
       </c>
       <c r="C37" t="n">
-        <v>3757.486495951125</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D37" t="n">
-        <v>3757.486495951125</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E37" t="n">
-        <v>3609.573402368731</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368731</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>4637.069157803799</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>4347.651987766838</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="X37" t="n">
-        <v>4119.662436868821</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="Y37" t="n">
-        <v>3898.869857725291</v>
+        <v>693.7762810288177</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7175,10 +7177,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,25 +7201,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O39" t="n">
-        <v>2302.237516093321</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>731.3351829786183</v>
+        <v>695.9829531089974</v>
       </c>
       <c r="C40" t="n">
-        <v>562.3990000507114</v>
+        <v>695.9829531089974</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2823606383756</v>
+        <v>695.9829531089974</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>548.0698595266043</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>401.1799120286939</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>1044.311772267568</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W40" t="n">
-        <v>1044.311772267568</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X40" t="n">
-        <v>816.3222213695503</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.3222213695503</v>
+        <v>877.6314179392372</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,43 +7399,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>2649.889045452864</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>3177.427413012051</v>
       </c>
       <c r="M42" t="n">
-        <v>1722.015429253975</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>4289.159124556163</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.5712828402495</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S43" t="n">
-        <v>1370.022425560835</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T43" t="n">
-        <v>1370.022425560835</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U43" t="n">
-        <v>1080.893786774393</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="V43" t="n">
-        <v>826.2092985685065</v>
+        <v>4344.244641493095</v>
       </c>
       <c r="W43" t="n">
-        <v>826.2092985685065</v>
+        <v>4054.827471456134</v>
       </c>
       <c r="X43" t="n">
-        <v>598.2197476704891</v>
+        <v>3826.837920558117</v>
       </c>
       <c r="Y43" t="n">
-        <v>598.2197476704891</v>
+        <v>3606.045341414587</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7624,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>337.0962993456004</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>791.4353891154691</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>536.7509009095822</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>247.3337308726216</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>247.3337308726216</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.3337308726216</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9249,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>176.7176547498454</v>
+        <v>15.83804904622781</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>80.50021372615264</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>38.86002301949912</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>91.23759968301997</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>145.2351313103783</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10188,22 +10190,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>145.2351313103786</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>145.2351313103783</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>444.4889386861659</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,25 +10904,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>29.47535963978262</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>283.6093329825484</v>
       </c>
       <c r="M42" t="n">
-        <v>253.7371603504736</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>297.2466435761027</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>202.5230052237939</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>25.22876291321592</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>10.65244607795634</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>172.2228930541243</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>9.461745143208788</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.01257672722345</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>97.73414781909598</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>197.9062119246647</v>
+        <v>52.46115847698488</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>42.458594281049</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>123.2541654272721</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>106.621488142779</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>170.2099891031804</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>87.23009411965587</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>3.332097335030284</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>58.35504975065186</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>12.02247725762572</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.86245202551282</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>158.0775153623234</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.69481217491455</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>124.9034499324617</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25606,16 +25608,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>180.2802558402994</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>72.20572458002309</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>54.37459486303901</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>115.2640032163536</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791022.4183502588</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>791022.4183502588</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448197</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448194</v>
-      </c>
       <c r="E2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="F2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934489</v>
-      </c>
       <c r="G2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="H2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934487</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934485</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934483</v>
       </c>
       <c r="K2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="M2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="L2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="O2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934484</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934485</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26430,25 +26432,25 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="J4" t="n">
-        <v>29303.54555230232</v>
-      </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26457,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211010.3629549604</v>
+        <v>-211010.3629549603</v>
       </c>
       <c r="C6" t="n">
+        <v>378957.5162595842</v>
+      </c>
+      <c r="D6" t="n">
         <v>378957.5162595841</v>
       </c>
-      <c r="D6" t="n">
-        <v>378957.5162595838</v>
-      </c>
       <c r="E6" t="n">
-        <v>-40355.86538446667</v>
+        <v>-40355.86538446679</v>
       </c>
       <c r="F6" t="n">
-        <v>484804.17109243</v>
+        <v>484804.1710924294</v>
       </c>
       <c r="G6" t="n">
-        <v>484804.1710924292</v>
+        <v>484804.171092429</v>
       </c>
       <c r="H6" t="n">
-        <v>484804.1710924297</v>
+        <v>484804.1710924299</v>
       </c>
       <c r="I6" t="n">
         <v>484804.1710924295</v>
@@ -26549,19 +26551,19 @@
         <v>484804.1710924297</v>
       </c>
       <c r="L6" t="n">
-        <v>484804.1710924294</v>
+        <v>484804.1710924298</v>
       </c>
       <c r="M6" t="n">
         <v>350003.1558585924</v>
       </c>
       <c r="N6" t="n">
-        <v>484804.1710924297</v>
+        <v>484804.1710924299</v>
       </c>
       <c r="O6" t="n">
-        <v>484804.1710924294</v>
+        <v>484804.1710924298</v>
       </c>
       <c r="P6" t="n">
-        <v>484804.1710924297</v>
+        <v>484804.1710924295</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,13 +26752,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>210.9370728176444</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.357034213231316</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.669206330491306</v>
       </c>
       <c r="D4" t="n">
-        <v>147.0866890412408</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>119.5134627351067</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>50.61924544429678</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>134.1320213729878</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>16.64113212406579</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>188.1845614115807</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>72.83584140527773</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>20.10409987028908</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>208.1452399537353</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,7 +35491,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110549</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35507,7 +35509,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,7 +35737,7 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35744,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>179.2506324680955</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M18" t="n">
-        <v>487.1420318003116</v>
+        <v>326.2624260966943</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>122.4103926810593</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>321.2237252606072</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>179.2506324680942</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>394.4928362664027</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507413</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>455.6595083608449</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
@@ -37166,7 +37168,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>394.4928362664027</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
@@ -37543,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37622,25 +37624,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>236.5687745713073</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>532.8670379385727</v>
       </c>
       <c r="M42" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>546.504348532127</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
@@ -38108,16 +38110,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>484.886707464902</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2734230.909544457</v>
+        <v>2727213.894652744</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>148.5742820316299</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>84.11892151122089</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>162.5776147681365</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>85.18011569752119</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>411.4450956504855</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>335.6186932117568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>14.48345164522457</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>67.24036028042121</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>281.8472002154052</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>307.7676307244763</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1186,22 +1186,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>126.3298627762801</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>172.6920470703873</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>207.0920728594998</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>216.2479102458284</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>24.40666873704852</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>233.7761939215925</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>103.9753683655202</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2526,10 +2526,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>59.87208032059861</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2766,19 +2766,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>145.8998232290783</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>164.2100584890558</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>248.8055459887977</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>274.5005210789653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>3.347695664762908</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>128.4454829742676</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.59011853091588</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>179.9319187438049</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>92.05936778353016</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1314.38774159731</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>1314.38774159731</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>956.12204299056</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>956.12204299056</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>949.1765422413565</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>531.2127341395434</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>204.0180141755462</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.527073573122</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.38774159731</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.1627947174721</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>612.6715441534691</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>612.6715441534691</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>612.6715441534691</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.1627947174721</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>597.2403795762991</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>1624.583944532629</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>1266.318245925879</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>880.5299933276342</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>469.5440885380266</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y5" t="n">
-        <v>597.2403795762991</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.57273095695493</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C7" t="n">
-        <v>68.57273095695493</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>121.8625376591738</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>121.8625376591738</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>68.57273095695493</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>68.57273095695493</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>68.57273095695493</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y7" t="n">
-        <v>68.57273095695493</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2075.803581887074</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="C8" t="n">
-        <v>1706.841064946662</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4801,31 +4801,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.548903816607</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>181.548903816607</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>181.548903816607</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>181.548903816607</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>181.548903816607</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O12" t="n">
-        <v>1818.397748747283</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.69837048303</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1213.404755937518</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1213.404755937518</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>924.2761171510765</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>924.2761171510765</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>634.8589471141159</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>634.8589471141159</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.274692278279</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O15" t="n">
-        <v>1925.814757496976</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,25 +5497,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514088</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,16 +5536,16 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341677</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698951</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.6964226305965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>268.7602397026897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>268.7602397026897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>268.7602397026897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>121.8702922047793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>121.8702922047793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>121.8702922047793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655744</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286139</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305965</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>437.6964226305965</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,43 +5737,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4624.717003396522</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4624.717003396522</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>4335.299833359561</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>4107.310282461544</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4107.310282461544</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028616</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1925.814757496978</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2446.115379232725</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.4872769945467</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>782.4872769945467</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>632.370637582211</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
         <v>527.3450129705744</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X25" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.1357418247865</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.1184791449342</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C28" t="n">
-        <v>416.1184791449342</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D28" t="n">
-        <v>416.1184791449342</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E28" t="n">
-        <v>416.1184791449342</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F28" t="n">
-        <v>269.2285316470238</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6414,22 +6414,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488384</v>
+        <v>816.7621830075352</v>
       </c>
       <c r="V28" t="n">
-        <v>644.1080300429516</v>
+        <v>816.7621830075352</v>
       </c>
       <c r="W28" t="n">
-        <v>644.1080300429516</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X28" t="n">
-        <v>416.1184791449342</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y28" t="n">
-        <v>416.1184791449342</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6548,19 +6548,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>712.8170085027681</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C31" t="n">
-        <v>712.8170085027681</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D31" t="n">
-        <v>562.7003690904323</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>712.8170085027681</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>712.8170085027681</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>712.8170085027681</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>712.8170085027681</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6697,40 +6697,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2379.156885434021</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>855.8834252987245</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6928,13 +6928,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6946,22 +6946,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>693.7762810288177</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="C37" t="n">
-        <v>524.8400981009108</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="D37" t="n">
-        <v>524.8400981009108</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185178</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185178</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W37" t="n">
-        <v>914.5688601723479</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X37" t="n">
-        <v>914.5688601723479</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y37" t="n">
-        <v>693.7762810288177</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7201,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.9829531089974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>695.9829531089974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>695.9829531089974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>548.0698595266043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>401.1799120286939</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1098.423997082767</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.423997082767</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>877.6314179392372</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2649.889045452864</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3177.427413012051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3606.045341414587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3606.045341414587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3606.045341414587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3606.045341414587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576119</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>4525.994054365625</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4525.994054365625</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4344.244641493095</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4054.827471456134</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>3826.837920558117</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>3606.045341414587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7733,19 +7733,19 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>953.6472828615138</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>337.0962993456004</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>337.0962993456004</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.7396287231155</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.23759968302141</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>15.83804904622781</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.23759968301997</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>230.7151863772038</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.8724419039329</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>444.4889386861659</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,25 +10901,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>159.0121003135238</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>43.65987261462459</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>283.6093329825484</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11381,22 +11381,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>297.2466435761027</v>
+        <v>159.0121003135239</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>25.22876291321592</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>79.43092547709125</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>9.461745143208788</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>86.01257672722345</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>52.46115847698488</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>42.458594281049</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="26">
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>106.621488142779</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>140.3375291694991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>15.6219216928815</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>3.332097335030284</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>12.02247725762572</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.1458727986147</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>158.0775153623234</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>124.9034499324617</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>72.20572458002309</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>54.37459486303901</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934481</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934481</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="I2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="M2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
     </row>
     <row r="3">
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26438,7 +26438,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26447,7 +26447,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26472,25 +26472,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211010.3629549603</v>
+        <v>-211010.3629549607</v>
       </c>
       <c r="C6" t="n">
-        <v>378957.5162595842</v>
+        <v>378957.5162595839</v>
       </c>
       <c r="D6" t="n">
         <v>378957.5162595841</v>
       </c>
       <c r="E6" t="n">
-        <v>-40355.86538446679</v>
+        <v>-41330.45664418856</v>
       </c>
       <c r="F6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.5798327078</v>
       </c>
       <c r="G6" t="n">
-        <v>484804.171092429</v>
+        <v>483829.5798327075</v>
       </c>
       <c r="H6" t="n">
-        <v>484804.1710924299</v>
+        <v>483829.579832708</v>
       </c>
       <c r="I6" t="n">
-        <v>484804.1710924295</v>
+        <v>483829.579832708</v>
       </c>
       <c r="J6" t="n">
-        <v>308380.9518998365</v>
+        <v>307406.3606401148</v>
       </c>
       <c r="K6" t="n">
-        <v>484804.1710924297</v>
+        <v>483829.579832708</v>
       </c>
       <c r="L6" t="n">
-        <v>484804.1710924298</v>
+        <v>483829.5798327078</v>
       </c>
       <c r="M6" t="n">
-        <v>350003.1558585924</v>
+        <v>349028.5645988707</v>
       </c>
       <c r="N6" t="n">
-        <v>484804.1710924299</v>
+        <v>483829.5798327078</v>
       </c>
       <c r="O6" t="n">
-        <v>484804.1710924298</v>
+        <v>483829.5798327078</v>
       </c>
       <c r="P6" t="n">
-        <v>484804.1710924295</v>
+        <v>483829.5798327081</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>3.357034213231316</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>132.3293988464369</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>4.669206330491306</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>166.9575276263068</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>2.339074370309447</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.61924544429678</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>134.1320213729878</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>100.0694419786297</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,16 +27855,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>72.83584140527773</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>99.10841501723513</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20.10409987028908</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="11">
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>287.7526615081896</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35737,16 +35737,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>492.2066737115375</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.2506324680955</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>326.2624260966943</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>179.2506324680942</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8086013087286</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>410.0098272511729</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,7 +37156,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>754.9133157366322</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>492.2066737115368</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>250.7532875461493</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>532.8670379385727</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>546.504348532127</v>
+        <v>408.2698052695482</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2727213.894652744</v>
+        <v>2732153.157501778</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>129.7359051192086</v>
       </c>
       <c r="T2" t="n">
-        <v>84.11892151122089</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>85.18011569752119</v>
+        <v>107.1778636154931</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.4450956504855</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>97.31207013050879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>67.24036028042121</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>43.86617416758069</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>307.7676307244763</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>102.5980685144046</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.2114886365812</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>152.3130359955443</v>
       </c>
       <c r="W13" t="n">
-        <v>207.0920728594998</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>186.9338896468053</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.34190763938388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>145.8998232290783</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>118.2422920270589</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>164.2100584890558</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.347695664762908</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>24.01153903325445</v>
       </c>
     </row>
     <row r="38">
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>35.43941554183539</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139886</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2566.102722210941</v>
       </c>
       <c r="T2" t="n">
-        <v>2557.151793961624</v>
+        <v>2347.468055183003</v>
       </c>
       <c r="U2" t="n">
-        <v>2557.151793961624</v>
+        <v>2093.706269821095</v>
       </c>
       <c r="V2" t="n">
-        <v>2557.151793961624</v>
+        <v>2093.706269821095</v>
       </c>
       <c r="W2" t="n">
-        <v>2557.151793961624</v>
+        <v>2093.706269821095</v>
       </c>
       <c r="X2" t="n">
-        <v>2557.151793961624</v>
+        <v>2093.706269821095</v>
       </c>
       <c r="Y2" t="n">
-        <v>2167.012461985812</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
@@ -4436,25 +4436,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4479,16 +4479,16 @@
         <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,28 +4509,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>612.6715441534691</v>
+        <v>619.8685159079563</v>
       </c>
       <c r="W4" t="n">
-        <v>612.6715441534691</v>
+        <v>619.8685159079563</v>
       </c>
       <c r="X4" t="n">
-        <v>612.6715441534691</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y4" t="n">
         <v>391.878965009939</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1993.546461473041</v>
+        <v>1666.64813361638</v>
       </c>
       <c r="C5" t="n">
-        <v>1624.583944532629</v>
+        <v>1666.64813361638</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.318245925879</v>
+        <v>1308.382435009629</v>
       </c>
       <c r="E5" t="n">
-        <v>880.5299933276342</v>
+        <v>1308.382435009629</v>
       </c>
       <c r="F5" t="n">
-        <v>469.5440885380266</v>
+        <v>897.396530220022</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>479.4327221182089</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>152.2380021542117</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473041</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.546461473041</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.546461473041</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.546461473041</v>
+        <v>2053.247973680502</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694738</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="C7" t="n">
-        <v>269.7756312415669</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D7" t="n">
-        <v>269.7756312415669</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>121.8625376591738</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>121.8625376591738</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>683.8197173704941</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>394.4025473335336</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>936.2491605982761</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C8" t="n">
-        <v>936.2491605982761</v>
+        <v>940.7524019189443</v>
       </c>
       <c r="D8" t="n">
-        <v>936.2491605982761</v>
+        <v>582.4867033121939</v>
       </c>
       <c r="E8" t="n">
-        <v>936.2491605982761</v>
+        <v>582.4867033121939</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>171.5007985225863</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>157.5773944611772</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4846,10 +4846,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982761</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982761</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,19 +4886,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,34 +5053,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>880.8106280646855</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.130761344647</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>2013.406634128705</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>1233.989615609078</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>1233.989615609078</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>1006.00006471106</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>1006.00006471106</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975556</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5752,28 +5752,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5831,13 +5831,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110091</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
         <v>1198.760773441947</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5980,22 +5980,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6013,7 +6013,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1387.841167119728</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>1387.841167119728</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,16 +6220,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.3450129705745</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6417,19 +6417,19 @@
         <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>816.7621830075352</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>816.7621830075352</v>
+        <v>555.5704444251534</v>
       </c>
       <c r="W28" t="n">
-        <v>527.3450129705745</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X28" t="n">
-        <v>527.3450129705745</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.3450129705745</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.9563154684962</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
         <v>244.1070389581962</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.8250614170374</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,46 +6691,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,16 +6767,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,7 +6885,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
@@ -6900,10 +6900,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.5986022327736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>100.5986022327736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>100.5986022327736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>100.5986022327736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>100.5986022327736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>1020.446367141521</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W37" t="n">
-        <v>731.0291971045608</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X37" t="n">
-        <v>503.0396462065435</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y37" t="n">
-        <v>282.2470670630133</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1352.043777683531</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1128.258362473036</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>839.1297236865947</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,13 +7423,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7596,10 +7596,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7830,13 +7830,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>223.6742649934479</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>38.86002301949836</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>159.0121003135246</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814714</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -10132,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>159.0121003135238</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>159.0121003135239</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>99.82460732828375</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43092547709125</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>38.77576574223181</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.2427457127109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>140.3375291694991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>133.8953512967691</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.6219216928815</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>163.1458727986147</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>194.5731143188403</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>162.4813944417679</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934481</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="F2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="G2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="G2" t="n">
-        <v>606095.0425934481</v>
-      </c>
       <c r="H2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="J2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="K2" t="n">
+        <v>606095.0425934489</v>
+      </c>
+      <c r="L2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="O2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934484</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934487</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26447,7 +26447,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26459,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26472,25 +26472,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211010.3629549607</v>
+        <v>-211010.3629549605</v>
       </c>
       <c r="C6" t="n">
-        <v>378957.5162595839</v>
+        <v>378957.5162595841</v>
       </c>
       <c r="D6" t="n">
         <v>378957.5162595841</v>
       </c>
       <c r="E6" t="n">
-        <v>-41330.45664418856</v>
+        <v>-40453.32451043875</v>
       </c>
       <c r="F6" t="n">
-        <v>483829.5798327078</v>
+        <v>484706.7119664574</v>
       </c>
       <c r="G6" t="n">
-        <v>483829.5798327075</v>
+        <v>484706.7119664573</v>
       </c>
       <c r="H6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664573</v>
       </c>
       <c r="I6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664574</v>
       </c>
       <c r="J6" t="n">
-        <v>307406.3606401148</v>
+        <v>308283.4927738647</v>
       </c>
       <c r="K6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664577</v>
       </c>
       <c r="L6" t="n">
-        <v>483829.5798327078</v>
+        <v>484706.7119664575</v>
       </c>
       <c r="M6" t="n">
-        <v>349028.5645988707</v>
+        <v>349905.6967326204</v>
       </c>
       <c r="N6" t="n">
-        <v>483829.5798327078</v>
+        <v>484706.7119664573</v>
       </c>
       <c r="O6" t="n">
-        <v>483829.5798327078</v>
+        <v>484706.7119664575</v>
       </c>
       <c r="P6" t="n">
-        <v>483829.5798327081</v>
+        <v>484706.7119664573</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>44.67980768976295</v>
       </c>
       <c r="T2" t="n">
-        <v>132.3293988464369</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>166.9575276263068</v>
+        <v>144.9597797083348</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.339074370309447</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>54.61924611435246</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>100.0694419786297</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>208.2714691562473</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>99.10841501723513</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>221.3247042499525</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724676</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>374.2497035813871</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>245.9534379510231</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>492.2066737115375</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330538</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,13 +36208,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37633,13 +37633,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>492.2066737115368</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>408.2698052695482</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
